--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:25:29+00:00</t>
+    <t>2022-04-14T19:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:48:55+00:00</t>
+    <t>2022-04-14T20:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:08:42+00:00</t>
+    <t>2022-04-14T20:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:27:58+00:00</t>
+    <t>2022-04-14T20:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:44:08+00:00</t>
+    <t>2022-04-15T12:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:45:47+00:00</t>
+    <t>2022-04-15T14:01:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:01:58+00:00</t>
+    <t>2022-04-15T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:27:29+00:00</t>
+    <t>2022-04-15T14:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:45:08+00:00</t>
+    <t>2022-04-15T14:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:52:59+00:00</t>
+    <t>2022-04-15T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:34:51+00:00</t>
+    <t>2022-04-15T15:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:54:30+00:00</t>
+    <t>2022-04-15T17:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,19 +425,13 @@
     <t>maxValueLabel</t>
   </si>
   <si>
-    <t>scale</t>
+    <t>maxLength</t>
   </si>
   <si>
     <t xml:space="preserve">integer
 </t>
   </si>
   <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
     <t>subType</t>
   </si>
   <si>
@@ -448,6 +442,9 @@
   </si>
   <si>
     <t>fieldCode</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
 </sst>
 </file>
@@ -752,7 +749,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ120"/>
+  <dimension ref="A1:AJ115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9207,7 +9204,7 @@
         <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>97</v>
@@ -10215,7 +10212,7 @@
         <v>87</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>97</v>
@@ -10614,7 +10611,7 @@
         <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>108</v>
@@ -10694,7 +10691,7 @@
         <v>85</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>73</v>
@@ -11033,7 +11030,7 @@
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>73</v>
@@ -11198,7 +11195,7 @@
         <v>85</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>73</v>
@@ -11223,7 +11220,7 @@
         <v>87</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>97</v>
@@ -11537,7 +11534,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>73</v>
@@ -11702,7 +11699,7 @@
         <v>85</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>73</v>
@@ -12041,7 +12038,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>73</v>
@@ -12126,7 +12123,7 @@
         <v>73</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>108</v>
@@ -12203,17 +12200,15 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>79</v>
@@ -12228,22 +12223,24 @@
         <v>73</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>73</v>
@@ -12285,27 +12282,27 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -12316,7 +12313,7 @@
         <v>74</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -12328,13 +12325,13 @@
         <v>73</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -12385,7 +12382,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -12397,513 +12394,9 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
         <v>106</v>
       </c>
     </row>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:11:07+00:00</t>
+    <t>2022-04-15T17:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:46:09+00:00</t>
+    <t>2022-04-15T19:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:11:05+00:00</t>
+    <t>2022-04-15T19:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:26:54+00:00</t>
+    <t>2022-04-18T13:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:39:40+00:00</t>
+    <t>2022-04-18T13:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:50:56+00:00</t>
+    <t>2022-04-18T13:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:55:40+00:00</t>
+    <t>2022-04-18T14:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:09:42+00:00</t>
+    <t>2022-04-18T14:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:34:01+00:00</t>
+    <t>2022-04-18T14:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:36:39+00:00</t>
+    <t>2022-04-18T14:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:49:47+00:00</t>
+    <t>2022-04-18T14:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:59:18+00:00</t>
+    <t>2022-04-19T16:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/item-settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/item-settings</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/settings</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:57:06+00:00</t>
+    <t>2022-04-19T19:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-item-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-item-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:13:12+00:00</t>
+    <t>2022-04-19T19:15:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
